--- a/code/data_process/1.Multiple_interface_joint_calls/data/history/combined_file_splited_new_326.xlsx
+++ b/code/data_process/1.Multiple_interface_joint_calls/data/history/combined_file_splited_new_326.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E327"/>
+  <dimension ref="A1:G327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,16 @@
           <t>gpt4o_label</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>key_text</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>non_key_text</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -486,6 +496,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>多多，多多，起来那里</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>，你妈妈来吃了，</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -513,6 +533,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>你去</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>你要去，你转抓钱。</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -540,6 +570,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>李家，这个反馈有名字的人给你加检查，给你检查</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>这个板块负责的人，听啊，，有重复名字的后面，这里身份证没有身份证，还要三边三个幺那个，那你在这里检查快点，我们快点，</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -567,6 +607,12 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>你们知道什么叫正能量？</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -594,6 +640,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>首先把，然后写上名字，然后写上你的思想，开始，几分钟全部要完成</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>我们应该如何自主的进行管理，请你，没有完成，我要跑，说明注意力不集中，</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -621,6 +677,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>从你个人和集体两个方面，赶快写出来。</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>腰围是你动的吗？如何独立自主的管理？</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -648,6 +714,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>龙，你来一下</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>这个，，不知道，</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -675,6 +751,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>可以，小强，你的别跳舞</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>，这个优惠是20的。</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -702,6 +788,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>翻开书的40页</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>迪迦奥特曼特曼玩具，恐玩具，我们要把，好了，爱我，你爱我发一个，我爱你啊。，</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -729,6 +825,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>这一组是什么车？这一组是什么标志？</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>说一个，这三角形的黄色的是警告，标志，是警告你前面是什么？要注意是这个意思，我错，僵尸，世接之机等于11，</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -756,6 +862,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>米白，来吧</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>，淘，来了，</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -783,6 +899,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>你试一下吗？</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>可以啊，那所以看来会有点硬，所，你一款要正方形的，</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -810,6 +936,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>啊，你会的就叫你旁边是不会的</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>，然后两边一样把它，</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -837,6 +973,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>我要请一个孩子来读读课题</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>我不想再相信议润的孩子啊，生命生命，，</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -864,6 +1010,12 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>你读的段位加什么标点符号呢？你对，</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -891,6 +1043,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>你为什么要读成感问号的人告诉我</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>命生命，那也是讲什么呀？还有你还注意了，就是那种什么叫，素病？感叹，病？，</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -918,6 +1080,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>还是自己来回答？张馨予</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>脚感冒了，，</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -945,6 +1117,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>杜一乐，我提了个什么问题？</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>爱，生命赞美生命还有吗？</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -972,6 +1154,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>陈佳颖，</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>一思填在中间，你们还有吗？还有加不同的吗？</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -999,6 +1191,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>王一明，你还要说的是吧？</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>那是我们，在思考，思考什么呢？生命到底是什么？好，让我们走进课文，好我觉得，为什么？因为现在</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1026,6 +1228,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>书读百遍，带着问题带着感慨，去走进这篇文章。</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>如果有几个孩子在讲话，是吧？你会找你的，这里人，18、生命生命契约。生，</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1053,6 +1265,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>那谁能告诉我二、自然段三自然段这里讲了什么呢？</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>234自然段，你能用简单的语言，或者说用小标题的形式。</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1080,6 +1302,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>第一个，关于生命的思考，他讲的是谁的例子</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>我们考苏老师把梯度减小一点。，</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1107,6 +1339,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>请你，默看文章，找到三个都</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>那如果我们要描述事情，那是必须还要有什么词语呢？婴儿吃粽，是不是？那就是飞蛾什么？我的情是动词，你们自己看一看，咱描述这三个事例的开始，</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1134,6 +1376,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>前后可以交流进行交流，好不好？</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>有规律是形容，对不对？我们说动词你放在一起描述一个事情，建议听心跳好。那前两个例呢，</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1161,6 +1413,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>哪个同学告诉我，你们这一组的结论是什么？</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>啊？连环境就不错，你看着我花花的很，你看有人吗？你看着可差，爱主人哥的59，</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1188,6 +1450,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>王浩轩，你觉得呢？</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>强瓜子顽强顽强是一个形容词，是完成是不是完成的瓜子，对不对？还有什么？</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1215,6 +1487,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>你看这篇文章测老师稍微点一下</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>，你就把这三个具体的典型的</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1242,6 +1524,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>让我们一起走进咱们的身影上，我们首先来读</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>最后得到一个结论，这是文章的最后一个字，是不是这样的？这就是境我疑惑的是生到底是，，文章的第一个是你</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1269,6 +1561,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>骚扰是什么意思呢？你是怎么理解的？</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>读的不错，那谁告诉我，郭云，骚扰你是换一个词是打扰，对不对？我觉得打扰还不够，有时候我说哎，不好意思，我你，还不是非常准确，王涵</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1296,6 +1598,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>你来说，</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>啊，扰乱就我觉得这个结论很准确，还有吗？好，谢珍，</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1323,6 +1635,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>他理解文中词语的方法是什么呀？</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>好非常好预备。我们刚才有一个孩子，</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1350,6 +1672,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>郭新源，来放弃自己</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1377,6 +1709,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>谁来告诉我</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>那也就是说，这只飞蛾的处境怎么样，</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1404,6 +1746,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>举手不知道，声音太小，我听不见挣扎</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>如果要你抓住关键词的话，你从哪些关键词看到了他对生命的渴望，，</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1431,6 +1783,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>为什么会放了他？</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>坐下作者，</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1458,6 +1820,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>我不得不在生病的面前感到什么呀？</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>震惊感到感，</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1485,6 +1857,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>你有什么样的启示呢？</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>这个事例其实也给我们一种启示。</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1512,6 +1894,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>我想请问你有什么启示吗</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>其实这个事例也给我们一种启示，？回避这个事情的，只要急，你们回答问，题叶新，</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1539,6 +1931,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>哪怕只有意思，希望我们也不要，还有不一样的说法吗？</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>陈佳，</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1566,6 +1968,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>我们一起来读一读，墙角的砖缝中掉进一粒香瓜饺儿，预备起，</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>才能够决定，才能够好，我们看第二篇的，</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1593,6 +2005,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>你从哪些字？哪个句子里看的？</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>文章中作者是怎样运用他的语言文字来凸显这棵花苗强烈的，不屈的生命，对吗？一个第一个说别人说的时候，我们要学会使，倾听的，也许你的问题会答的更加，</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1620,6 +2042,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>你要说什么，我问什么</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>，你知道吗？你哪些词语可以看出来强烈</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1647,6 +2079,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>还告诉我你啊</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>孩子们，你知道我们知道植物要发芽种才发芽，它是有条件的温度，有水分。，可是这粒种子它</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1674,6 +2116,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>每个四幅图，做安全的</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1701,6 +2153,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>写糯米厂长</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>，然后涂完之后边涂边思考，这里给我们一个什么，捉迷藏，</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1728,6 +2190,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>好，现在就把这个问题，像考试一样回答写对</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>男生几乎都睡觉去了，回家去了，的话，有道理的玩捉迷藏捉迷藏游戏可以藏在哪里？，</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1755,6 +2227,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>你觉得安全</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>你们经常玩捉迷藏，</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1782,6 +2264,12 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>谁知道这个是表示什么意思呢？</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1809,6 +2297,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>翻开你刚才的，第一幅图，在厨房里</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1836,6 +2334,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>假如叫你写的警示牌，你写什么</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>吧，这种情况，？</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1863,6 +2371,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>你写个你写个三角形，然后写几</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1890,6 +2408,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>谁知道什么意思？</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>坐一下你你的是怎么样？陡峭，</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1917,6 +2445,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>把你看见的有哪些？</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>团子？</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1944,6 +2482,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>你你看见谁想在？</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>香皂，</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1971,6 +2519,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>给你三分钟讨论剩下的</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>双位数，你们想好讨论好，，</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1998,6 +2556,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>下面请同学们翻开书76页，76页</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>对，做什么事对不对？这个回家做过的朋友举手，回家打过电话的举手。好，，</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2025,6 +2593,16 @@
           <t>多人展示</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>听他们两个读</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>没事？没事，你看着我在读书翻开，说其他同学不用读了，，白手抱回家算了，读哪里？</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2052,6 +2630,12 @@
           <t>集体未知</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>唱一首，那你放学以后出发，重来，三波预备起。三，</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2079,6 +2663,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>要发言发，要发言里手，小心，啊</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>，只有只有是这个值吗？不是这个是什么值？到们，</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2106,6 +2700,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>你说直角对了，还可以指什么角，还可以组正直，正直，还可以组词</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2133,6 +2737,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>纸你们动脑筋好不好？</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>只有是这个直，一元对一纸</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2160,6 +2774,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>请坐</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>用发言的时候，就像蚂蚁那种小声，开小差的面，啊，直接对了，，这个心灵，值得值得是不是这个值是，不是，</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2187,6 +2811,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>老师我好跟老师说一遍</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>有的同学说老师直的直都不看，这个才是直的直，它叫什么直的也是这个直，明白没有啊，，直角</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2214,6 +2848,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>下面拿出一号粉快点，比一比组词啊，写拼音写词语</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>横折高铁100，横折高铁，点我们的手，好，，第一道题，拼音写词语，不写拼音直接写，词语，如果你快的话，可以跟老师一样的速度写个音OK，</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2241,6 +2885,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>第一大题看拼音写词语。第二大题比一比主词今天比一比主词稍微</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>，啊，多了两个，多了几个，我看今天速度是不是要提，比平时要提高一点，快一点什么事？哪个？</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2268,6 +2922,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>在这里写，写完之后，我去，赶紧写，抓紧时间</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>再不写啊，你你放学留后，，你就是现在速度也提高啊。</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2295,6 +2959,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>你能你自己再发，你自己再再弄</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>里面的领领袖的那个人是不是啊？是那个手掌，昨天有个同学不是解释了对队伍里面的那个领领导的那个人，就是手掌什么叉子？，</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2322,6 +2996,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>老师跟我读</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>我现在正在，阿姨，，连李宇轩都写错了这个，对刘宇轩写的这个歌跟我读，正在正在不能写，你在我在啊，不行啊，正在，</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2349,6 +3033,12 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>你有两点的是我我问你，是在哪里下载？</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2376,6 +3066,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>你先点</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>玩具巧克力，我知已写完了，这个就，啊，，</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2403,6 +3103,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>看第幺第一组，还有很多同学没给我改翻开</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>今天反义词给我改的那道题100分的拒收。你，看有没有做完，完没有吃完那个，给我的，</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2430,6 +3140,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>你你自己写自己的</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>过喽，继续怎么样子来来？这样翻开绳，叠住放在桌子上，显不会，我说，你看别人写干什么呢？</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2457,6 +3177,16 @@
           <t>独立练习、学生齐读</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>第一道题做完的举手</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>撇折，他撇过来再走。撇折，臂，弯，文具书包。好，。第二道题跟我读二二，我会选择正确</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2484,6 +3214,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>标题二二，我会选择正确的读音</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2511,6 +3251,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>第四大题跟我读四四</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>写完了，大家看第五大题，。第三大题，先读做第四大题跟我读四四，我会填，一群大雁往南飞，一会儿排成一个一字，不玩一会儿排成一个人字，</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2538,6 +3288,16 @@
           <t>学生齐写</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>跟老师写上双引号，特意突出来</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>写上，，强调，这个人和，且说你放弃，一一会儿双一号，一会儿排成个一字，双一号，</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2565,6 +3325,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>跟我读</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>老师都写在黑板上了，还有的同学抄都不会抄，，一会儿排成个人字，字，一会儿排成个一字，对，一会儿排成个人字，一会儿排成一，主任是用相邻的。</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2592,6 +3362,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>跟我读一动物，二季三植物</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>。我举个例子啊，比如说，青蛙属于什么？冬天属于什么？季节？莲叶属于什么？植物就写在这里，认不认识字？植物。</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2619,6 +3399,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>跟我读七七</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>马儿子，表扬一，来何思？表扬周梦宇好，还有王琪琪要交给，我翻到15页有门，，我是小小头法家，我是</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2646,6 +3436,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>写苹果红红的跟我读</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>或者说下面是前面是词，后面是短语，看到没有？船小小的船怎样的船呢？小小的船月儿怎样的月儿？弯弯的月儿，星星怎样的星星和弯弯的星星可以，门，门人，</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2673,6 +3473,16 @@
           <t>学生齐读、独立练习</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>大题跟我读八</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>，好，现在句子组充完整，来一写的是ABA，鱼儿在什么样地方干什么？谁在天空上游，我在干什么，谁在干什么？</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2700,6 +3510,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>你快说话呀</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>，小鸟可爱的小鸟，准了吗？奥特曼，</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2727,6 +3547,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>还要不要什么说话呀？</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>哦，你的意思也是不能在衣柜里面嘛，对不对？好宇轩，</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2754,6 +3584,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>你看到了我们学校几些地方都可以来说一下，想一想不想啊</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>，你们小剧点哪些地方不能完全平，你都可以想一想，对不对？刘，在，家里你，在小王，要想一下那里是</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2781,6 +3621,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>用2~3的句话说一说，里面告诉你什么事情</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>对吧？上面这幅很大的图，为了，看一看这一幅图，，还有，</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2808,6 +3658,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>如果已经想好怎么说了，请你举手啊</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>。喂，导航，没天见，西大门，</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2835,6 +3695,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>三一试试，2~3句话认真说</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>哦，好，很棒，谢谢你们不行了。不好，好，很好啊，没有没，有孙子俊，没有了水，</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2862,6 +3732,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>说话说话，你小站起来说，是他</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>第一首，只要你自己的状态，想要回答问题啊，就只要给机会，对不对？不要正在说话，，</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2889,6 +3769,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>会是怎样？你们想一想</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>，我的美没有神又很高，爱孩子想一下你的生活，如果一天下来的别绩会怎么样？我给你一下，当你停了之后，你就在这个腹部不方便的地方，这样可以放脚，</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2916,6 +3806,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>说一说啊</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>题说我们没有水，我们，我们要做一个事件能进，举个例程，如果你今天你回家没有水，你觉得哪些不方便？不方便，</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2943,6 +3843,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>说一说啊，猜猜啊，我现在是明的邓德君</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>代表我相信你接下来不说话。好，今天回忆一下，你们给大家已经怎么喝水的一款，不是，你猜在是多少？，</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2970,6 +3880,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>好，首动题要请小姐姐安忠实，他说，他想有一些话想对我们说</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>花裙。小水在我们地球这世界上上面们他做了什么，到了不幸，他非常的开心。，</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2997,6 +3917,12 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>这些营养素在人体内都有什么作用呢？</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3024,6 +3950,12 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>先看一遍，然后等一下老师</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3051,6 +3983,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>来梦辰说</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>啊，老师要准备发，邀请每一组最乖最安静的同学发型，然后我告诉你们，这个是回家做的这不是在这做的。，</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3078,6 +4020,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>最后一个男的，念一下啊</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>，只有一张啊，没有的了啊，弄丢，找同学借来复印，你发你们，</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3105,6 +4057,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>你就看就行了，动眼睛就行了</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>我们看到这个纸啊，。刚刚我们看，这个视频里面，</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3132,6 +4094,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>剪出虚线框，这里有多少个虚线框？</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>观察一下，虚线框要干什么哎，创作下面的虚线框呢？</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3159,6 +4131,16 @@
           <t>学生齐写</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>必须每个同学都要抄啊</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3186,6 +4168,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>我们每个同学要准备一支</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>这是液体胶水，。这是，拿来装裱我们的剪纸作品的，因为，同学们的剪纸作品不能用双面胶贴贴的不好。我们要用液体胶水来贴，所以每个开始学，</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3213,6 +4205,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>你给我写呀</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>写山几个字啊，怎么写？没没说说字，，</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3240,6 +4242,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>请你准备啊</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>有的同学就拿一支这个笔回来啊，冰嘴，没有的同学，，我们家里都有掏耳朵的那种棉签，是不是？嗯，两头是白色的，中间有一个像牙签一样的那种棉签，你没有这些饼就准备棉签，</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3267,6 +4279,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>你没有这些笔，你就准备棉签，你有这些笔就准备这些笔了吗？</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>可也跟，</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3294,6 +4316,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>写完</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>好，，我再解释啊，</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3321,6 +4353,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>马上先把这个写完</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>，我等一下一个一个要检查，</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3348,6 +4390,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>组长快点帮老师检查这些手工做的</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>猫四之六，啊，，工具猪，</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3375,6 +4427,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>暑假作业，美术作业赶紧抄</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>巴，个不像他的画，写好同学，现在请，把你的东西收拾好，把你的可以，。赶，紧抄不要泪。</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3402,6 +4464,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>今天外面遇到关键时刻应该怎么样?</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>开始这个是，他说，今天外面遇到关键时刻应该怎么样？帅逼，是师神的名，什么样子？镇镇定自己？</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3429,6 +4501,12 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>这里为什么是对的？</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3456,6 +4534,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>你有什么预预备</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>？</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3483,6 +4571,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>把作做完这些有几个100块的举手</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>特，玩具，你有病吗？小可爱的，少影面，姐姐，小嘴巴，，我下一个，</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3510,6 +4608,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>请</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>兄弟，然后第个频备答对好，下一题，好，，</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3537,6 +4645,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>好，我先请个同学出来</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>实习以有一人吗？，我不可以吗？我拉你，</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3564,6 +4682,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>我请一个</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>没有听到你，，</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3591,6 +4719,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>可以看书，也也做作业啊</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>，妈，</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3618,6 +4756,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>你们做自己的作业书也行</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>啊，，但是你如果要做其他的事情啊，可以，赶紧收起来，说的就是你，</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3645,6 +4793,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>你坐来</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>干什么？，</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3672,6 +4830,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>再找一找看书包里有</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3699,6 +4867,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>你用认真做完啊，老师讲你就更正</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>不要老师讲完了，</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3726,6 +4904,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>好，第二题，大家一起先读一读，</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>老师刚刚讲了的老师讲到哪一题？更正到哪一题？先别跟正读一遍了，你就知道自己错哪里再跟正，预备读，</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3753,6 +4941,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>比一比再组词</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>第三题，，湖湖，</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3780,6 +4978,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>大家说一遍</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>对，里面是圆，他就走软。，</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3807,6 +5015,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>面是云它，就读云</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>。再说一遍，里面是云，他就读云，</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3834,6 +5052,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>这个数什么一字对对不对呀？</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>好，还有有的人总自己，他总词，他就写的，我们班我看了一下，至少有四个人写成这个样子，</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3861,6 +5089,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>请同学们把题目读一遍</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>赶快多少分钟过来过来的。看下面这一题，第四题，第三题更正完没有，第四题，他的题目，四补充</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3888,6 +5126,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>在括号里填一个字，并在方框里加上标点</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>他是说，</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3915,6 +5163,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>请你跟我站起来</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>方向，，怎不？老是埋着头，</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3942,6 +5200,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>好，你们读啊</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>你在玩什么？坐，，为什么读了一个月子就不</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3969,6 +5237,12 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>你说可不可以呢？</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3996,6 +5270,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>你看前面第二题里面为什么你不会选？</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>明明前面，原证据你为什么不会选？第二题里面就有，no，你为什么</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4023,6 +5307,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>照样子写下来，写句子</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>有的人做错了，赶快过来啊。看这里，荷叶圆圆的绿绿的，他让你，西瓜，</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4050,6 +5344,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>错了的，赶快跟作</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>草芽小小的尖尖的，尖尖的绿绿的都可以，，这个垃圾，你跟我管房子，你别在那里管别人，自己错了没，更正还在那里管别人，</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4077,6 +5381,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>好，把这三句话读一遍，我们读书预备读</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>因为他后面的在教室里读书是动作动作的，前面要加土字旁的歌，一样东西的前面才加白质，明白没有？，</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4104,6 +5418,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>你说，争霸，还有啊，你说</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>那第三句怎么加？</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4131,6 +5455,16 @@
           <t>集体未知</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>要站在前面吧，对不对？我们整整齐齐的，在在操场上来</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>老师讲的时候，有的人就没听，</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4158,6 +5492,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>我们扫地谁来说？</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>我们扫地，张成伟，</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4185,6 +5529,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>第三句，这个的要用什么的？</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>哎，用为后面的扫地是什么呀？</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4212,6 +5566,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>赶快，打三角形改正啊</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>改过来没有，没有改正的，，</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4239,6 +5603,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>你写他，写小明，月小月都可以</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>你就不要写我，，对不对？不要他写我，你也写我，我们可以换个人，明白没有，明白没有明白，老师讲的什么，</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4266,6 +5640,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>你再数一数走错的人，再数一手给我标出来，跟我用小数字标出来</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>明明是一句话，没说完，就用逗号在，一句话没说完，里面要有勤奋，这一句哈，，</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4293,6 +5677,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>那你就在书上跑很灵敏三个字</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>好，再看下面的，第二小题短文主要写了猫的什么很灵敏，，找玲敏。你看玲敏是写的谁？水果面，</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4320,6 +5714,16 @@
           <t>学生齐写</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>那就写</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>像把尺子，。无需像尺子，什么很锋利？来有锋利的爪子，锋利的爪子，有的人就写着蜂利的饺子，</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4347,6 +5751,16 @@
           <t>学生齐写</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>一直写到这里，这个句号为止都是写耳朵，那么这一定要像他这样画的这么完整，并且要用横线，你随手画的就是波浪线，你要用知尺</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>，听明白没有听明</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4374,6 +5788,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>请同学们读第一句话，找到这篇文章的第一句话，读两遍，预备服</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>爪子也好，耳朵也好，都是为了写，他是抓老鼠的能手，明白没有明白没有</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4401,6 +5825,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>请同学们看这一幅图，这幅图，蒙正清就，你看，来，第一个是，我们给他取个名字</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>，你不要，你不要随意弄取小，</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4428,6 +5862,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>我要张嘴说</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>，小硕呀，</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4455,6 +5899,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>单元主题是什么？</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>哈索麻辣，</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4482,6 +5936,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>我们来把课文读一遍</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>，准备好，20，乡下人家预备起，</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4509,6 +5973,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>你来说</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>咱们也是你们最大的助理，中之，中心句怎么回？，</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4536,6 +6010,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>那这说明什么呢？</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>中心局不好找，</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4563,6 +6047,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>孩子大声回答我</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>请抓住这一个总的关键词，是不是人别知道的独</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4590,6 +6084,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>那你们能不能找到一个关键板题？</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>萝，在这里，你看文章中三步是哪一个？</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4617,6 +6121,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>请上演，买小吃呗，鸡腿小</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>下一自然段，那么有同学说我还要损呢，这就是在跟哪里一起写出来的。对呀，真聪明下一个在哪？，</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4644,6 +6158,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>那我问你，既然这纲除了减还写了</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>冰。，</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4671,6 +6195,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>周先杰，啊，下三写的是鸟儿</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4698,6 +6232,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>主要小钱主要写什么？</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>耿一涵是，谁吃晚饭乡下人家吃，快写到吃晚饭的时候，还写到了什么？</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4725,6 +6269,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>下一个自然段，主要讲的是什么呢？你告诉</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>，好，这里应该写三，算了啊，纺织，娘讲算了啊，纺织娘是什么呢？</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4752,6 +6306,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>抓住关键词，还有一个就是去找文中的什么词？</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>主要人物主要事情或者是他讲的道理，</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4779,6 +6343,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>除了这个刀饼子和主要人物还有什么</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>嘛，几个孩子是文章中，主要，他还有什么命的题，，叫什么？文章还告诉你一个这个道理，落脚点，小小姐在里，你们陆脚姐是哪一个？的是哪句话？啊，小鸟栽</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4806,6 +6380,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>第一个，我们都来读一遍啊，来来来预备</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>每老师讲究去，我们准备，第一个来，独立外音读rpyongpy第二个lose有后音，第二个，怦然心动。第一个慵软憾，这个是遗憾的憾，打扰的扰</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4833,6 +6417,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>衔接斜字是什么旁啊？</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>花很多从车窗往外看始没过，</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4860,6 +6454,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>你怎么得分的？你对自己的责任在哪里？</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>袁诗琳，你看这这里是那些他有我，</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4887,6 +6491,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>我们每个人都读一遍</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>这个小女孩整天在花香她走的很有过几天进来，珍惜珍，，人的生命是有限的，预备</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4914,6 +6528,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>我想请你们把榴莲忘返这个词字旁边写</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>你的脚毛也很秀丽啊，什么西千姿百千姿百卖呀，让我榴莲，是。三，另外还有一个孩，还有个反特别，姐，咱们每个</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4941,6 +6565,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>写写出卫国有关战争的成语</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4968,6 +6602,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>拉一拉吧，小黄</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4995,6 +6639,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>请你，用波浪线</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5022,6 +6676,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>我们我们做第五单</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>分钟，只有10min。，哪个都没讲啊，后面看看西东柿识了</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5049,6 +6713,12 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>阿迪，你再换一家</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5076,6 +6746,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>小姑娘，说话了</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>芭比娃娃，汪汪队，小朋友，你好，，</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5103,6 +6783,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>赛罗飞刚，打开机</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5130,6 +6820,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>可以来起来，起来写字日</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>第一道选的最差啊，是第什么？五四大主持人多少？，第五条是多少？跟你什么关系？</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5157,6 +6857,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>把书翻开，37页快点</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>，母亲，</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5184,6 +6894,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>拿出这种彩彩笔吧</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>有还有人不知道吗？别比如说你，比如说他这种，把这个，这种，鸭子，就全部都是蓝色的，你把它拿出来，你那一个那边的红色，全部都这一边涂就可以了。</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5211,6 +6931,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>开始独立做要求，既要写的好，又要写的快</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>，待会我们来开啊，动作快点啊，很有的东西，在一页一页的翻，在翻页的过程中动作就，</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5238,6 +6968,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>我要听努力说</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>打你了，，</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5265,6 +7005,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>这样可不可以？或者怎么改？</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>继续，病菌对不对？又是，的是乘风，浪，浪。所以他知到一艘货轮在海面上乘乘破浪行，</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5292,6 +7042,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>这段话一起来读我爱花</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>我们班的同学还是有点欠缺，有点不自信啊，像蒙题前面都做的飞溜的，到了阅读题的时候就有点不自信，拿不定主意不敢轻易的下手了哈。好看，，</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5319,6 +7079,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>大声的读出来是右右半边掀起预备，起</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>大海从哪里去找？你从哪里知道？应该是掀起一层层雪浪，在右半边，是不是？你们的大海，充足了封面的太阳，月亮小鱼，</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5346,6 +7116,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>谁来说一说？李嘉</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>好。，</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5373,6 +7153,16 @@
           <t>集体未知</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>整齐的来预备</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>和奥利书，</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5400,6 +7190,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>开始写</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>大海的书指的是大海，展示了海面壮丽的景象和海底世界的种奥秘。对呀，所以就在海面上飘的海底蕴藏的都要写，对不对？，</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5427,6 +7227,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>表示你们谁来说？陈佳琪</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>是一个末尾的省句号，，</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -5454,6 +7264,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>那你还会想到什么？我还会想到</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>省略了大海的其他，景象，</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5481,6 +7301,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>好，审阅了大海千变万化的景象，留给读者去想一下，那你想到了什么？他没有说吧，那你就自己写</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>浪波越越大，千万过海，，你要合情合理的，想驾驶出现在大海。好，我有，</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5508,6 +7338,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>这首诗表达了少年儿童什么样的思想感觉？少年去去哪里啊，去哪里签名啊，我问这些，少年儿童去哪里？</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>去夏令营，去海滨海滨是什么意思啊？海边对不对？他们为什么要去海边夏令营呢？</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5535,6 +7375,16 @@
           <t>独立练习、个体发言</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>第，四题请你也仿照这首诗写几句吧，那你就是，可以接着省略号后面读读几句是不是？</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>看谁补好了？红衣服好了，你说，</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5562,6 +7412,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>你说说桃</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>好，写的色嗯，</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5589,6 +7449,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>好，你说</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>然后这写一，创了一首是吧？，</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5616,6 +7486,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>做完200零10页</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>学习课作文复习2~3要作文要上，一课还是，，</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5643,6 +7523,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>我试一下</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>喜欢那些队的，我主要还有很，，</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5670,6 +7560,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>把它写好，学号交过来</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>练习，你今天带了装配，对吧？交啊，今天揣在自己兜里能够变五块钱的利息出来吗？，</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5697,6 +7597,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>今天的的毕业试试是600这样的作作业</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>你要想到你们。这个世卷，那就花一下午的时间，</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5724,6 +7634,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>你先过来</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>奶茶，别人今天晚上吃，</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5751,6 +7671,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>很好，接下来我们再来看下面，我能将下列词语补充</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>嗯完犬，对吧？是的，来是博彩凤凰，对不对？前赴后继高歌什么？歌曼，美不胜收。五湖四海，气什么？</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5778,6 +7708,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>好，第二版做完同学举手</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>我们就会取得胜利。我们的友谊不是一场雄的，而是，你们同意到有这五个关联词吗？只要就还有呢，不是，而是那是对的啊。，只有，10来个同学80块钱，那就快一点。</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -5805,6 +7745,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>怎么改？</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>做的作业他已经批都批交好了，我们看看他是否都做对了啊。你看啊老师是园丁，我们是祖国的花朵，仿写，它是老师的雨水，我们是饥渴的小树。这句话你觉得这这个这句话应该是有余病的，</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -5832,6 +7782,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>谁来改？</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>C的你的这个是错的，疑问句和反问句有什么不一样的词义？问就不用</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5859,6 +7819,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>好，那个你说</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -5886,6 +7856,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>最后一段起什么样的作用</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>最后一段是承上启下，</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -5913,6 +7893,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>你体会到了什么呢？焦雨涵</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>了，都画好了没有？画好了，我们来看看，水洗这个颜色好了，再来看，这些动作中，我体会到了玛利亚的决心和毫无退缩之意，这是她体会了，，</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -5940,6 +7930,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>黄振宇，你想说什么呢？</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>体会到他的机智性和面对危胁，毫无畏矩，这也就是一，无微不乱，说，我体会到了10</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -5967,6 +7967,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>那条雨，你写的是什么呀？</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>我们非常悲情紧急。这个就是，只要是，挨得上边的都对，我想对玛利亚说，你的美德，我深感敬佩。那我再点一个同学，我想听马云，</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -5994,6 +8004,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>可以坐下自己写要过去新的玛利亚和江雪哪些地方值得我们学习？</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>你有一颗永远心是我们学习的榜样，江，玛利亚是有爱心，有勇气是吧？江雪是什么？</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -6021,6 +8041,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>大家一起，回想一下第三单元的，单元主题是什么？</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>悲。同学们好，请坐，大家把世界坐起来，休正。今天我们来开始第三单元的复习，</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6048,6 +8078,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>好，一起来回忆一下这个单元安排了哪几篇课文？</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>革命，先辈有时候他也会说，是英雄，</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -6075,6 +8115,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>王月坚在灯光中回忆了哪个英</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>王月坚，那么</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6102,6 +8152,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>每个大组一个任务啊，自己的复习，找出16年前的回忆，这篇文章中必须要掌握的知识点</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -6129,6 +8189,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>把你的草稿本拿出来，写一写记一记</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>，通过这个，自己要学会自己为纳，自己去寻找重点，</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -6156,6 +8226,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>还有一第三分钟的时间啊，赶紧完善</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>。</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -6183,6 +8263,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>有部分同学还没有完成，我们现在看完成了的同学</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>，第一道，现在，基本上还没有完成。第二大组有一个完成了。</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -6210,6 +8300,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>韩佳琪，你把你们最大的不足的这一课来讲解一下</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -6237,6 +8337,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>现在他就抬头看他是怎么做</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>，有不行，怎么样寻找重点啊？</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -6264,6 +8374,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>看他是怎么做的啊</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>一个同学也，做了，他是应该是从，上次佳浩宇和，曾子毅的，做法当中得到了一点启示，。</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -6291,6 +8411,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>冯一威，你上来解说一下</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>这个呢是冯一威的，，你是怎么样做这个？</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -6318,6 +8448,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>跟大家说一说</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -6345,6 +8485,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>你们谁上来？讲一讲那个，好，快点快点派一个人上来讲一下，你自己上去吧</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>冯一涵陈艳宇是冯一三，他们三个人合作的，，</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -6372,6 +8522,16 @@
           <t>集体未知</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>都锻炼一下啊，无论是口头表达还是这个胆量都要锻炼啊</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>，快递，</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -6399,6 +8559,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>好，你来讲吧</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>，这个比较比较全啊，胆子大一点，声音响亮一点啊。</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -6426,6 +8596,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>你怎么写的，你就怎么说</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>始大声一点快点，16年前的回忆开始，，</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -6453,6 +8633,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>那个就是你自己勇敢的把这份资料说完</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>。16年前的回忆先介绍了大钊这个主要人物，然后介绍了16年前的回忆，这篇文章的结构和主要内容大声的说出来，我没有这么多时间给你们来耗啊，快点。</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -6480,6 +8670,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>好，我们一起把它读出来</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>，被捕前辈写</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -6507,6 +8707,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>一起来读一遍</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>好，接下来，他还补充哪一句？口战一绝，就是李大钊的诗，，恐战一</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -6534,6 +8744,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>你还在讲呢</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>放大。，别人在这样的过程中，他得到了锻炼，无论是胆量也好，概括能力也好，口头表格也好，你呢就锻炼了讲讲话的能力，</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -6561,6 +8781,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>写沙尘暴啊、洪灾啊、泥石流啊等等这一些。写两三个，</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>就</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -6588,6 +8818,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>继续看一个形面面，然后，变化，然后来第八题，植物链的成员</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>，所有的所有的动植物，无法避免的成员。干嘛没有，</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6615,6 +8855,16 @@
           <t>学生齐写</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>再开复字练吧</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>。</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -6642,6 +8892,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>消费者写你写的三条食物链</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>身费者是五，消费者是五，啊，的选植物也的选草也的行了，生材特，植物也行，仙草也行，写更符合这个题目。</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -6669,6 +8929,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>第二题</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>，不减肥，</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -6696,6 +8966,16 @@
           <t>学生齐写</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>你就写谷类了，先知道谷类食物，蔬菜水果写，一下往上写好蔬菜，少吃油脂类，油脂类食品</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>因为这个空太小了，实在我就是本来要写谷类食物的，。</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -6723,6 +9003,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>把英语写完了吗？写完完吗？</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>好好好，我知道啊，拜拜，聊天雪？你想，你，写微生物，微生物食物的分解和都是由微生物引起的啊，判断题，</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -6750,6 +9040,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>第五题抄第五题，第六走，第六个运动，走</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>一定要看题目，要不然你答案没有，</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -6777,6 +9077,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>大家把周末的作业那份试卷拿出来</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>，动作要迅速。</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -6804,6 +9114,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>现在我想请一个小老师上台来，帮他批改</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>还有在讲话的同学息讲，大家来看看，这一份呢是刘子从这个当中大家看得出，他还是有一些知识没有掌握哈。，</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -6831,6 +9151,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>其他同学批改自己的红笔准备啊</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>锤同，好，，</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -6858,6 +9188,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>隐瞒可以，抓住了反义词是</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>我要，隐瞒也可以吧？，</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -6885,6 +9225,16 @@
           <t>个体发言、个体未知</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>陈一彤，你先下来哈，那么讲解</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>不好，其是颜字旁一个y，，好，一涵你上去，快点，</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -6912,6 +9262,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>一个人来教你的，你也来教你</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>小老师，，</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -6939,6 +9299,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>一起来读啊，一起一起来试的</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>斗破天大史，减少人，看就行，，对不对？好一一起来发现祝福无缘无预备，无缘无故美无胜，华恨图强和，</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -6966,6 +9336,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>再给一个同学啊，韩瑞</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>他这里没有写，好，这里是，ABB的。是的，词语它可以，我其实都是可以的。胡一涵回座位，右边还有，，再见，请接，</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -6993,6 +9373,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>大家跟他一起读好</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>声音声音小了，</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -7020,6 +9410,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>六种意思大来读一遍</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>，意思预备，明备，什么意义？421选好351名做代表的遇四包种七，鸟口五鸟意点心意，六、情绪趣味，</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -7047,6 +9447,16 @@
           <t>集体未知</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>我们一起放下来，好不好？</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>这个应该不难2164830，八个，关注三，三，</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -7074,6 +9484,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>好，你说</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>听明白了没有？，</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -7101,6 +9521,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>我们一起来念</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>，改了，妆菜，</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -7128,6 +9558,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>上去。</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>快点，好，我们来看一下，你要先往世界往上飞，</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -7155,6 +9595,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>让我看看你的电影</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>。</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -7182,6 +9632,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>亲爱的第二句，预备起</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -7209,6 +9669,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>大家做20作业</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>，房间没有。那那你们在读书是备了一款手机里的跟教室一样的手机，么都不。第四，大子最热亮。第一，大子最安静的，</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -7236,6 +9706,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>证人抓紧时间</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>。那坐。</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -7263,6 +9743,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>有请陈宋俊</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>，一定把你工多发自己。</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -7290,6 +9780,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>你要做好上台来讲的准备</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>，你先熟悉一下第一道题，</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -7317,6 +9817,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>你说他先说一下第二天</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>如果，</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -7344,6 +9854,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>你这样子讲一讲比较好的</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>，是啊，不用拿你，哪里？</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -7371,6 +9891,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>第二题，谁愿意来讲，家庭？</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>远近是指大小的问题，对不对？所以千万不能挺困的啊，课文内容有点涨架了，啊，非常好，什么雨。</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -7398,6 +9928,16 @@
           <t>集体未知</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>抓紧右举起来，准备</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>改完了，，</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -7425,6 +9965,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>一个好龙上来</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>你也，，</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -7452,6 +10002,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>自己在我们身上出出答案一下，自己他</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -7479,6 +10039,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>哪个同学能够有条理的说出这个单元当中出现的外国的</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>大家辛苦外国，外国，外国明天，？分别是来，证据一，</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -7506,6 +10076,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>鲁滨逊漂流记的作者呢？</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>他是哪个国家的？丹麦？著名，赶考的作者是卸车，你还听说过气变色，那么</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -7533,6 +10113,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>服衣服是哪个国家的服？</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>第一幅是，七龙珠呢？</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -7560,6 +10150,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>马克罗，文文，预备，卖火柴的小女孩，这个故事你是否能够简单的说说她的主人？</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>这里的是谁呀？</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -7587,6 +10187,12 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>谁来体验一下？王志宇，</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -7614,6 +10220,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>那么谁来说说凡卡这个故事主要讲的什么呢？</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>非常好多下，</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -7641,6 +10257,12 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>于世龙，卡这篇课文这篇短篇小说主要讲的什么？</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -7668,6 +10290,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>谁来帮帮他？谁来补充？</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>一个小男孩到城市去打工，老板怎么样？</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -7695,6 +10327,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>这篇长篇小说主要怎么喜欢的呢？丽阳</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -7722,6 +10364,12 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>再请一个同学说一说鲁滨逊漂流记</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -7749,6 +10397,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>谁来说一说？马克温向大家讲了一个什么样的故事？证据一，</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>好，坐下，汤姆索亚历险记</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -7776,6 +10434,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>谁来帮帮他？</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>看不出来。</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -7803,6 +10471,16 @@
           <t>独立练习、个体展示</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>大家把那个整理出的这些资料拿出来，给大家五分钟再完善，</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>组织好一言大款就上台来，自己完善，</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -7830,6 +10508,12 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>你自己在心里默默</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -7857,6 +10541,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>现在来看一个同学的</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>，那是一个，</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -7884,6 +10578,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>像邱涵刚刚那样抬头说话</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>最好能够，我也不是听着，</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -7911,6 +10615,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>玉安，先用证言举止大家</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>还，有问你，我取消了，喜欢出来小朋友喜你ok，不是真的看我就是老，你喜欢什么就行吗？，正面对大家，你说，</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -7938,6 +10652,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>你就对着你的语绩讲</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>算小，这个学期还还是有几次都给孩子的机会，所以多讲，可以拍到的，，</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -7965,6 +10689,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>手前，然后有个正面看一下</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>，我就知得，</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -7992,6 +10726,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>用字母，你用数字也行，用数字也行。你看老师其实啊一看呢，我一我一眼就可以请到四个同学</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>，你做了还是没做，你在老师心目中间就留下印象嘛啊，一下就可以组到四个同学，实际上，</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -8019,6 +10763,16 @@
           <t>集体未知</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>我们再看基本信息</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -8046,6 +10800,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>哪一个同学来讲讲？</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>全班同学都写好了没有？好，我们再来看，三题，比的基本性质，分数的基本性质商的规律，商活费的规律之间有什么联系？一人心，</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -8073,6 +10837,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>好，第四题，你怎样判断两种相关的的量是成正比例关系，还是成反比例关系？</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>清楚，生活中的实例加以说明，这一单品，开开洗手间了，</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -8100,6 +10874,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>那么谁能告诉我他们怎样去判断这比例或者是环比例呢？好，周志豪</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>他总是不忘记这比例他是反比例还100斤。黄婷的照片，他硬是要摆成正比例，是不是？，</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -8127,6 +10911,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>哎，自己一定</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>这是什么比例啊，真正比例，比例，还有一个什么？X，Y等于，我们叫他，反比例反比例是吧？</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -8154,6 +10948,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>你说说要单价数量总价好，请说</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>既然讲到这里，我会有什么选择那个，也给我们上所有的同学进行看看。哎，分一，</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -8181,6 +10985,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>好，王泽宇，你来说说看啊</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>我一笔买一只三块钱，我两只六块，我买10只，30yd100斤，是不是他们那么总交的数量就是成正比例？，</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -8208,6 +11022,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>请文科迪讲解。讲解。85页的第二题啊，</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>我们今天就请温来先完成第二题，嗯，下面的3~4题或者5~6题的，请你们做好准备啊，好，温科迪，有</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -8235,6 +11059,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>请唐佳琪帮忙</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>，啊，等一下啊。哎，佳琪因为他的速度也比较快，所以老师呢就请他帮一下忙，对不多。哎，只要我就不确定了啊，如果是讲错了，那是文科题的责任，写作了，是唐佳琪的自己的责任了啊。</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -8262,6 +11096,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>写一个字就可以了</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -8289,6 +11133,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>底下对比打勾做以认定</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>同学习可不一样啊，，</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -8316,6 +11170,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>好开始</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>即使我觉得你挺，你知道你为什么成绩别人已经，你经讨论了，老半，你看你们大半截过的过来，你一个字都不写，你这怎么好啊？你，老师守着你一下，你就学一下，不守着你就不学了。。</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -8343,6 +11207,16 @@
           <t>多人展示</t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>我点两个同学上来写句子</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>很多兴兴让了，非常不好意思啊，喜欢你们，，远中你小镇中间送给我是吧？第一个第四大组点一个刘文正，第一大就点一个卢之雅，好点走路，</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -8370,6 +11244,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>要写句子</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>闭上嘴巴，，高鞋，</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -8397,6 +11281,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>小心看自己的是不是？身份证</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -8424,6 +11318,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>今天请你把动画片抄了</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>我们，的是，。我首先点过我奥三大，那个wifi训练，</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -8451,6 +11355,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>把说话的人的名字记下来</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>有服务，不穿上了吗？我买律吧，，</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -8478,6 +11392,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>你自己说一下</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -8505,6 +11429,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>你问这个鬼怎么整</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>还是你，？</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -8532,6 +11466,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>你还快说</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>比如嗯，拿到没有？好兄弟，，</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -8559,6 +11503,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>下一个</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>谢谢大家在吗？，</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -8586,6 +11540,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>30min必须要做完</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>荣耀5000。今天星期天，我我们主要是复习课外阅读，字编阅读，我给大家，，谁在发出声音，请他直接出去，</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -8613,6 +11577,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>我看看有多少人30min能做完四篇阅读</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>已经上课两分钟了啊，，</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -8640,6 +11614,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>你去做你的作业</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -8667,6 +11651,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>卢成，你分享一下你的经验</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>做完了的同学，刚刚最先做完的应该是元手镯炉，啊，怎么样的提高这个阅读，做阅读速度？发些可以，</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -8694,6 +11688,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>你也分享一下你的经验和是起来是很棒的。你看着我说，</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>你看一下。好，谢谢袁守卓。你平常动作比较慢。你今天做阅读题，为什么这么快，</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -8721,6 +11725,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>周你呢？阅读，你再说一遍</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>对，你就抓起一干一目，这是很好说的。，你的方法是，我约我，就是带着其，</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -8748,6 +11762,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>王振宇，你分享一下</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>多平常就要多看书，多阅读，提高阅读的速度，然后带着题目到文章中去看，这样能够迅速的找到答案，有针对性的去看文章。，有，</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -8775,6 +11799,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>我会把时间延长到40min啊</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>没做完的同学，，整整一节课，希望你们能够做完，不然你这个速度真的是太满力了，</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -8802,6 +11836,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>做完了都要认真检查</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>。做完了的，你们的有很多同学的正确率</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -8829,6 +11873,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>你在后面补充一下</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>，你是同理全文，再问你一句，与文章题目相呼应，突出中心。</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -8856,6 +11910,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>某个同学来做一个</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>形画了一个正方，现在我们来举个例子，也就是说出一道例题，相信猫，，</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -8883,6 +11947,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>现在我们要求它的周长应该多少？</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>怎么是这样？大概看一下就可以了，边缘。好，现在我们可以看到，正方形的边长是40cm。</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -8910,6 +11984,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>有哪位同学可以记得长方形的面积公式吗？</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>有哎，周长公，</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -8937,6 +12021,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>现在哪位同学可以跟我说一？跟同学们说一说正方形和长方形的关系吗？</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>其实正方形和长方形，他们都是四边形房子，其实有很多相像的地方，说一下说一下这里，</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -8964,6 +12058,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>有谁还想补充一下吗？</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>你但是要送来不们，都是边唱黑边唱，年，年底都是别人，你可以先，真心，</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -8991,6 +12095,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>帮我求一下这，个长方形看下，它的面积是1/2吗？</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>现在有同学吗？来雨，妈妈瞧一下，</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -9018,6 +12132,16 @@
           <t>集体未知</t>
         </is>
       </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>现在我们来把这个扩展一下</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>，因为容易的大家都会，</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -9045,6 +12169,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>小温这个期间，元首怎么发言比较积极手？</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>2:12长和宽的比是2:150000，就是15除以括号，2+1，然后再用，等于，5=5，然后5×2，5×1。</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -9072,6 +12206,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>我想请前面同学们改一下他，把式子说出来</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>没有一有一我爱了，，有同学可以吗？踩一下，啊，一个有88，这一个款只有八个，我们这这就是有八个，你可以把那个面积改成的少。</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -9099,6 +12243,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>然后现在我们要求面积</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>现在已知周长是一，15，长和宽的比是2:1，，</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -9126,6 +12280,16 @@
           <t>集体未知</t>
         </is>
       </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>好，接下来做一个</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -9153,6 +12317,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>有，有同学可以给我们回顾一道三小时的面积不？</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>哦，底乘高除以二，</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -9180,6 +12354,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>你可以给我们讲一下这个公式</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>你能行，，为什么要这样子吗？</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -9207,6 +12391,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>然后我们一起读一遍遍读读读读</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>样，，</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -9234,6 +12428,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>如果你真的想错了，你赶紧把自己那个蹄子取掉，去第16题</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>收，哎，你说谁又不怎么样？双a加傻b，，</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -9259,6 +12463,16 @@
       <c r="E327" t="inlineStr">
         <is>
           <t>个体发言</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>首先你喜欢，首先你是不是认那个商底是二还是三啊，是2÷3？三是吧？</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>我觉得你可以让你真的很假这样子。我觉得你可以让你问真假，下地，下一个下地兄，下一个下，一个下下一个。相信同学们都知道我要求什么</t>
         </is>
       </c>
     </row>
